--- a/Final_Project/Sprites/backgrounds.xlsx
+++ b/Final_Project/Sprites/backgrounds.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Level 1" sheetId="1" r:id="rId1"/>
+    <sheet name="basic" sheetId="3" r:id="rId1"/>
+    <sheet name="Level 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -44,6 +45,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -151,6 +176,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +210,152 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628650" y="3248025"/>
+          <a:ext cx="6067425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628650" y="3620558"/>
+          <a:ext cx="6067425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="619125" y="4011083"/>
+          <a:ext cx="6067425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1973,7 +2159,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="20000" contrast="40000"/>
                   </a14:imgEffect>
@@ -2965,7 +3151,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="20000" contrast="40000"/>
                   </a14:imgEffect>
@@ -3023,11 +3209,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId9">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="20000" contrast="40000"/>
                   </a14:imgEffect>
@@ -3085,11 +3271,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId9">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="20000" contrast="40000"/>
                   </a14:imgEffect>
@@ -3147,11 +3333,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
+                <a14:imgLayer r:embed="rId9">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="20000" contrast="40000"/>
                   </a14:imgEffect>
@@ -3598,6 +3784,244 @@
   <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="96.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="2:17" ht="141.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
